--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npy-Fap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npy-Fap.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.253355333333332</v>
+        <v>2.116619666666667</v>
       </c>
       <c r="N2">
-        <v>15.760066</v>
+        <v>6.349859</v>
       </c>
       <c r="O2">
-        <v>0.04967091282801074</v>
+        <v>0.02062449887850904</v>
       </c>
       <c r="P2">
-        <v>0.04967091282801075</v>
+        <v>0.02062449887850904</v>
       </c>
       <c r="Q2">
-        <v>0.3128723324688888</v>
+        <v>0.1260588119477778</v>
       </c>
       <c r="R2">
-        <v>2.81585099222</v>
+        <v>1.13452930753</v>
       </c>
       <c r="S2">
-        <v>0.04967091282801074</v>
+        <v>0.02062449887850904</v>
       </c>
       <c r="T2">
-        <v>0.04967091282801075</v>
+        <v>0.02062449887850904</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>232.890716</v>
       </c>
       <c r="O3">
-        <v>0.7340003812730865</v>
+        <v>0.7564347981517648</v>
       </c>
       <c r="P3">
-        <v>0.7340003812730866</v>
+        <v>0.7564347981517647</v>
       </c>
       <c r="Q3">
         <v>4.623398247524444</v>
@@ -632,10 +632,10 @@
         <v>41.61058422772</v>
       </c>
       <c r="S3">
-        <v>0.7340003812730865</v>
+        <v>0.7564347981517648</v>
       </c>
       <c r="T3">
-        <v>0.7340003812730866</v>
+        <v>0.7564347981517647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>68.638857</v>
       </c>
       <c r="O4">
-        <v>0.2163287058989027</v>
+        <v>0.2229407029697262</v>
       </c>
       <c r="P4">
-        <v>0.2163287058989027</v>
+        <v>0.2229407029697262</v>
       </c>
       <c r="Q4">
         <v>1.362633842243334</v>
@@ -694,10 +694,10 @@
         <v>12.26370458019</v>
       </c>
       <c r="S4">
-        <v>0.2163287058989027</v>
+        <v>0.2229407029697262</v>
       </c>
       <c r="T4">
-        <v>0.2163287058989027</v>
+        <v>0.2229407029697262</v>
       </c>
     </row>
   </sheetData>
